--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>236215.226899831</v>
+        <v>233516.1748059236</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673428</v>
       </c>
     </row>
     <row r="9">
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>165.1725371760944</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368145</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>146.9311922907013</v>
       </c>
     </row>
     <row r="3">
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -750,13 +750,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>48.7788117555066</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>26.91122581714242</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="W3" t="n">
-        <v>31.15457431472145</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>127.2378420788152</v>
       </c>
     </row>
     <row r="4">
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>119.666982088386</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,22 +859,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>165.1725371760943</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59.16150419098786</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.1217610028605</v>
+        <v>12.12176100286048</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>306.8976264094352</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>87.84129258094035</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.1711248816494</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>356.4313017624536</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>98.67293060369995</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1.407578871044888</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.6415446830818</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>95.79797317841044</v>
       </c>
       <c r="I6" t="n">
-        <v>30.79801895224382</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>140.0697787646034</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.3045852332498</v>
       </c>
       <c r="U6" t="n">
         <v>225.8294102072821</v>
@@ -1035,7 +1035,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>70.53430878375356</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>149.5409427785071</v>
       </c>
       <c r="I7" t="n">
-        <v>112.5404054555728</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>113.1358328502781</v>
       </c>
       <c r="S7" t="n">
-        <v>199.15003117566</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>221.8489350595716</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.241199726252</v>
       </c>
       <c r="V7" t="n">
-        <v>146.7451909825523</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>233.3934276525039</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>35.9524543521409</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>90.24200886969172</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>8.906162259191587</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>315.3998342615266</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>289.9775033393747</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184549</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.88510599615208</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544492</v>
+        <v>201.9388203544491</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>275.4287658597449</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812551</v>
+        <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530792</v>
+        <v>10.48847705530787</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905236</v>
       </c>
       <c r="S13" t="n">
         <v>186.2346889920369</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>128.56761367071</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>30.05706037504512</v>
       </c>
     </row>
     <row r="14">
@@ -1768,16 +1768,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="G16" t="n">
-        <v>55.5207962406033</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,13 +2059,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>225.1478176131516</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2239,19 +2239,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>99.97427419833875</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>241.4474687473718</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>15.51491006411092</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833906</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>185.7495818221992</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>214.0647808588578</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3193,13 +3193,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>107.4021082756234</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>147.6895341487366</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>4.019807611472528</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703264</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,7 +3904,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833772</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.05480806223561</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4037,7 +4037,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>114.2821160880059</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179706</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>560.6825636487947</v>
+        <v>211.3673327389935</v>
       </c>
       <c r="C2" t="n">
-        <v>560.6825636487947</v>
+        <v>211.3673327389935</v>
       </c>
       <c r="D2" t="n">
-        <v>560.6825636487947</v>
+        <v>211.3673327389935</v>
       </c>
       <c r="E2" t="n">
-        <v>371.26277863231</v>
+        <v>211.3673327389935</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897903</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.033711606785</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058973</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
         <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985576</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020256</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652795</v>
+        <v>738.6222485201457</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652795</v>
+        <v>738.6222485201457</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652795</v>
+        <v>738.6222485201457</v>
       </c>
       <c r="U2" t="n">
-        <v>560.6825636487947</v>
+        <v>549.2024635036612</v>
       </c>
       <c r="V2" t="n">
-        <v>560.6825636487947</v>
+        <v>549.2024635036612</v>
       </c>
       <c r="W2" t="n">
-        <v>560.6825636487947</v>
+        <v>549.2024635036612</v>
       </c>
       <c r="X2" t="n">
-        <v>560.6825636487947</v>
+        <v>359.7826784871767</v>
       </c>
       <c r="Y2" t="n">
-        <v>560.6825636487947</v>
+        <v>211.3673327389935</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>350.7471648378719</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="C3" t="n">
-        <v>350.7471648378719</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="D3" t="n">
-        <v>201.8127551766207</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="E3" t="n">
-        <v>201.8127551766207</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="F3" t="n">
-        <v>201.8127551766207</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="G3" t="n">
         <v>64.27357399906981</v>
@@ -4404,55 +4404,55 @@
         <v>64.27357399906981</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024199</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140239</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546598</v>
+        <v>512.5000587546594</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476339</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017052</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843275</v>
+        <v>722.9192922843266</v>
       </c>
       <c r="S3" t="n">
-        <v>571.6362168389238</v>
+        <v>571.6362168389229</v>
       </c>
       <c r="T3" t="n">
-        <v>382.2164318224391</v>
+        <v>571.6362168389229</v>
       </c>
       <c r="U3" t="n">
-        <v>382.2164318224391</v>
+        <v>571.6362168389229</v>
       </c>
       <c r="V3" t="n">
-        <v>382.2164318224391</v>
+        <v>382.2164318224384</v>
       </c>
       <c r="W3" t="n">
-        <v>350.7471648378719</v>
+        <v>192.7966468059539</v>
       </c>
       <c r="X3" t="n">
-        <v>350.7471648378719</v>
+        <v>192.7966468059539</v>
       </c>
       <c r="Y3" t="n">
-        <v>350.7471648378719</v>
+        <v>64.27357399906981</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>612.5614882768591</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="C4" t="n">
-        <v>612.5614882768591</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="D4" t="n">
-        <v>462.4448488645234</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E4" t="n">
-        <v>314.5317552821302</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F4" t="n">
-        <v>314.5317552821302</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G4" t="n">
-        <v>314.5317552821302</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H4" t="n">
-        <v>159.5482493914034</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818523</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>89.66773767220337</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8896250884407</v>
+        <v>262.5553157873383</v>
       </c>
       <c r="M4" t="n">
-        <v>373.5399563830973</v>
+        <v>448.2056470819948</v>
       </c>
       <c r="N4" t="n">
-        <v>471.6341805242515</v>
+        <v>471.6341805242508</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608017</v>
+        <v>634.3723839608009</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846272</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R4" t="n">
-        <v>612.5614882768591</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S4" t="n">
-        <v>612.5614882768591</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="T4" t="n">
-        <v>612.5614882768591</v>
+        <v>560.682563648794</v>
       </c>
       <c r="U4" t="n">
-        <v>612.5614882768591</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="V4" t="n">
-        <v>612.5614882768591</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="W4" t="n">
-        <v>612.5614882768591</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="X4" t="n">
-        <v>612.5614882768591</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="Y4" t="n">
-        <v>612.5614882768591</v>
+        <v>15.00204697330557</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1233.799188941045</v>
+        <v>813.7477433249346</v>
       </c>
       <c r="C5" t="n">
-        <v>864.8366720006331</v>
+        <v>813.7477433249346</v>
       </c>
       <c r="D5" t="n">
-        <v>864.8366720006331</v>
+        <v>455.4820447181842</v>
       </c>
       <c r="E5" t="n">
-        <v>864.8366720006331</v>
+        <v>455.4820447181842</v>
       </c>
       <c r="F5" t="n">
-        <v>453.8507672110256</v>
+        <v>448.5365439689807</v>
       </c>
       <c r="G5" t="n">
-        <v>37.56616013742911</v>
+        <v>436.2923409357883</v>
       </c>
       <c r="H5" t="n">
-        <v>37.56616013742911</v>
+        <v>126.2947385020154</v>
       </c>
       <c r="I5" t="n">
-        <v>37.56616013742911</v>
+        <v>37.56616013742915</v>
       </c>
       <c r="J5" t="n">
         <v>125.6123058620869</v>
       </c>
       <c r="K5" t="n">
-        <v>308.309172940571</v>
+        <v>308.3091729405706</v>
       </c>
       <c r="L5" t="n">
-        <v>571.8625535714458</v>
+        <v>571.8625535714455</v>
       </c>
       <c r="M5" t="n">
-        <v>896.7859082672686</v>
+        <v>896.785908267269</v>
       </c>
       <c r="N5" t="n">
-        <v>1231.580670917812</v>
+        <v>1231.580670917813</v>
       </c>
       <c r="O5" t="n">
-        <v>1534.382610379519</v>
+        <v>1534.382610379521</v>
       </c>
       <c r="P5" t="n">
-        <v>1758.316059280668</v>
+        <v>1758.316059280671</v>
       </c>
       <c r="Q5" t="n">
-        <v>1878.308006871455</v>
+        <v>1878.308006871458</v>
       </c>
       <c r="R5" t="n">
-        <v>1878.308006871455</v>
+        <v>1878.308006871458</v>
       </c>
       <c r="S5" t="n">
-        <v>1878.308006871455</v>
+        <v>1878.308006871458</v>
       </c>
       <c r="T5" t="n">
-        <v>1667.024042344537</v>
+        <v>1878.308006871458</v>
       </c>
       <c r="U5" t="n">
-        <v>1667.024042344537</v>
+        <v>1878.308006871458</v>
       </c>
       <c r="V5" t="n">
-        <v>1667.024042344537</v>
+        <v>1547.245119527887</v>
       </c>
       <c r="W5" t="n">
-        <v>1667.024042344537</v>
+        <v>1547.245119527887</v>
       </c>
       <c r="X5" t="n">
-        <v>1293.558284083457</v>
+        <v>1173.779361266807</v>
       </c>
       <c r="Y5" t="n">
-        <v>1293.558284083457</v>
+        <v>813.7477433249346</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>689.7336222735159</v>
+        <v>308.784818891698</v>
       </c>
       <c r="C6" t="n">
-        <v>515.280592992389</v>
+        <v>134.331789610571</v>
       </c>
       <c r="D6" t="n">
-        <v>366.3461833311377</v>
+        <v>134.331789610571</v>
       </c>
       <c r="E6" t="n">
-        <v>207.1087283256822</v>
+        <v>134.331789610571</v>
       </c>
       <c r="F6" t="n">
-        <v>205.6869314862429</v>
+        <v>134.331789610571</v>
       </c>
       <c r="G6" t="n">
-        <v>68.67527019020065</v>
+        <v>134.331789610571</v>
       </c>
       <c r="H6" t="n">
-        <v>68.67527019020065</v>
+        <v>37.56616013742915</v>
       </c>
       <c r="I6" t="n">
-        <v>37.56616013742911</v>
+        <v>37.56616013742915</v>
       </c>
       <c r="J6" t="n">
-        <v>71.18799439756</v>
+        <v>71.18799439756019</v>
       </c>
       <c r="K6" t="n">
-        <v>206.8078890800185</v>
+        <v>468.6284737224718</v>
       </c>
       <c r="L6" t="n">
-        <v>435.4881151702601</v>
+        <v>697.3086998127136</v>
       </c>
       <c r="M6" t="n">
-        <v>888.0857375107141</v>
+        <v>983.5246056828548</v>
       </c>
       <c r="N6" t="n">
-        <v>1352.966969211399</v>
+        <v>1352.966969211401</v>
       </c>
       <c r="O6" t="n">
-        <v>1612.689810537063</v>
+        <v>1612.689810537065</v>
       </c>
       <c r="P6" t="n">
-        <v>1801.807222027793</v>
+        <v>1801.807222027795</v>
       </c>
       <c r="Q6" t="n">
-        <v>1878.308006871455</v>
+        <v>1878.308006871458</v>
       </c>
       <c r="R6" t="n">
-        <v>1878.308006871455</v>
+        <v>1878.308006871458</v>
       </c>
       <c r="S6" t="n">
-        <v>1736.823381856704</v>
+        <v>1736.823381856707</v>
       </c>
       <c r="T6" t="n">
-        <v>1736.823381856704</v>
+        <v>1541.566225055444</v>
       </c>
       <c r="U6" t="n">
-        <v>1508.712866495813</v>
+        <v>1313.455709694553</v>
       </c>
       <c r="V6" t="n">
-        <v>1273.560758264071</v>
+        <v>1078.303601462811</v>
       </c>
       <c r="W6" t="n">
-        <v>1273.560758264071</v>
+        <v>824.066244734609</v>
       </c>
       <c r="X6" t="n">
-        <v>1065.709258058538</v>
+        <v>616.2147445290761</v>
       </c>
       <c r="Y6" t="n">
-        <v>857.948959293584</v>
+        <v>408.4544457641222</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>618.2092532879161</v>
+        <v>259.8643940387026</v>
       </c>
       <c r="C7" t="n">
-        <v>449.2730703600092</v>
+        <v>259.8643940387026</v>
       </c>
       <c r="D7" t="n">
-        <v>299.1564309476735</v>
+        <v>188.6176174894566</v>
       </c>
       <c r="E7" t="n">
-        <v>151.2433373652804</v>
+        <v>188.6176174894566</v>
       </c>
       <c r="F7" t="n">
-        <v>151.2433373652804</v>
+        <v>188.6176174894566</v>
       </c>
       <c r="G7" t="n">
-        <v>151.2433373652804</v>
+        <v>188.6176174894566</v>
       </c>
       <c r="H7" t="n">
-        <v>151.2433373652804</v>
+        <v>37.56616013742915</v>
       </c>
       <c r="I7" t="n">
-        <v>37.56616013742911</v>
+        <v>37.56616013742915</v>
       </c>
       <c r="J7" t="n">
-        <v>45.01194249256548</v>
+        <v>45.0119424925656</v>
       </c>
       <c r="K7" t="n">
-        <v>187.0844868696026</v>
+        <v>187.0844868696029</v>
       </c>
       <c r="L7" t="n">
-        <v>424.4148644101285</v>
+        <v>424.414864410129</v>
       </c>
       <c r="M7" t="n">
-        <v>685.0355944467492</v>
+        <v>685.0355944467499</v>
       </c>
       <c r="N7" t="n">
-        <v>944.893962460926</v>
+        <v>944.8939624609269</v>
       </c>
       <c r="O7" t="n">
-        <v>1168.898929103174</v>
+        <v>1168.898929103175</v>
       </c>
       <c r="P7" t="n">
-        <v>1337.05319389053</v>
+        <v>1337.053193890531</v>
       </c>
       <c r="Q7" t="n">
-        <v>1370.039410552809</v>
+        <v>1370.039410552811</v>
       </c>
       <c r="R7" t="n">
-        <v>1370.039410552809</v>
+        <v>1255.760791512126</v>
       </c>
       <c r="S7" t="n">
-        <v>1168.877762900628</v>
+        <v>1255.760791512126</v>
       </c>
       <c r="T7" t="n">
-        <v>1168.877762900628</v>
+        <v>1031.670958118619</v>
       </c>
       <c r="U7" t="n">
-        <v>1168.877762900628</v>
+        <v>742.5384331426068</v>
       </c>
       <c r="V7" t="n">
-        <v>1020.650297261686</v>
+        <v>487.8539449367199</v>
       </c>
       <c r="W7" t="n">
-        <v>1020.650297261686</v>
+        <v>487.8539449367199</v>
       </c>
       <c r="X7" t="n">
-        <v>1020.650297261686</v>
+        <v>259.8643940387026</v>
       </c>
       <c r="Y7" t="n">
-        <v>799.8577181181558</v>
+        <v>259.8643940387026</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1330.099343395678</v>
+        <v>880.645441216167</v>
       </c>
       <c r="C8" t="n">
-        <v>1330.099343395678</v>
+        <v>880.645441216167</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.099343395678</v>
+        <v>880.645441216167</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974333</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078258</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
@@ -4802,16 +4802,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V8" t="n">
-        <v>2308.758267664335</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>1955.989612394221</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X8" t="n">
-        <v>1955.989612394221</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="Y8" t="n">
-        <v>1565.850280418409</v>
+        <v>880.645441216167</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380223</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694941</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>587.3200113734622</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606423</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
         <v>51.2467865680031</v>
@@ -4960,52 +4960,52 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.86271359008</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1533.86271359008</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V10" t="n">
-        <v>1279.178225384193</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W10" t="n">
-        <v>989.7610553472321</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="X10" t="n">
-        <v>989.7610553472321</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="Y10" t="n">
-        <v>768.9684762037019</v>
+        <v>60.24291006213602</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1950.79667383271</v>
+        <v>1872.090169197696</v>
       </c>
       <c r="C11" t="n">
-        <v>1581.834156892299</v>
+        <v>1553.504478024437</v>
       </c>
       <c r="D11" t="n">
-        <v>1581.834156892299</v>
+        <v>1195.238779417686</v>
       </c>
       <c r="E11" t="n">
-        <v>1196.045904294054</v>
+        <v>809.4505268194422</v>
       </c>
       <c r="F11" t="n">
-        <v>785.0599995044466</v>
+        <v>809.4505268194422</v>
       </c>
       <c r="G11" t="n">
-        <v>370.4442349455922</v>
+        <v>394.8347622605877</v>
       </c>
       <c r="H11" t="n">
-        <v>77.53766591592071</v>
+        <v>101.9281932309162</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592071</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="J11" t="n">
         <v>304.4060796706899</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656962</v>
+        <v>695.1615405656976</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.83000462533</v>
+        <v>1216.830004625331</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087831</v>
+        <v>1828.956123087833</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484042</v>
+        <v>2455.600890484045</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535296</v>
+        <v>3033.988513535299</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479994</v>
+        <v>3493.127967479997</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.74982946406</v>
+        <v>3789.749829464063</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796035</v>
+        <v>3876.883295796039</v>
       </c>
       <c r="S11" t="n">
-        <v>3876.883295796035</v>
+        <v>3776.99935034538</v>
       </c>
       <c r="T11" t="n">
-        <v>3672.9046893774</v>
+        <v>3573.020743926744</v>
       </c>
       <c r="U11" t="n">
-        <v>3672.9046893774</v>
+        <v>3319.526802048273</v>
       </c>
       <c r="V11" t="n">
-        <v>3341.841802033829</v>
+        <v>2988.463914704702</v>
       </c>
       <c r="W11" t="n">
-        <v>2989.073146763715</v>
+        <v>2635.695259434588</v>
       </c>
       <c r="X11" t="n">
-        <v>2615.607388502635</v>
+        <v>2262.229501173508</v>
       </c>
       <c r="Y11" t="n">
-        <v>2337.396513896832</v>
+        <v>1872.090169197696</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722697</v>
+        <v>312.3928428722696</v>
       </c>
       <c r="G12" t="n">
-        <v>176.274091040601</v>
+        <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
         <v>88.13208718390851</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592071</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="J12" t="n">
-        <v>77.53766591592071</v>
+        <v>193.8410919870414</v>
       </c>
       <c r="K12" t="n">
-        <v>354.4735703335449</v>
+        <v>470.7769964046659</v>
       </c>
       <c r="L12" t="n">
-        <v>773.1706109914963</v>
+        <v>889.4740370626176</v>
       </c>
       <c r="M12" t="n">
-        <v>1011.185054749523</v>
+        <v>996.4574081599342</v>
       </c>
       <c r="N12" t="n">
-        <v>1546.994364450733</v>
+        <v>1532.266717861144</v>
       </c>
       <c r="O12" t="n">
-        <v>2014.935408783256</v>
+        <v>2000.207762193667</v>
       </c>
       <c r="P12" t="n">
-        <v>2371.16628502803</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>544.5035818385564</v>
+        <v>374.5442528261668</v>
       </c>
       <c r="C13" t="n">
-        <v>375.5673989106496</v>
+        <v>374.5442528261668</v>
       </c>
       <c r="D13" t="n">
-        <v>225.4507594983138</v>
+        <v>224.4276134138311</v>
       </c>
       <c r="E13" t="n">
-        <v>77.53766591592071</v>
+        <v>224.4276134138311</v>
       </c>
       <c r="F13" t="n">
-        <v>77.53766591592071</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="G13" t="n">
-        <v>77.53766591592071</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592071</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592071</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758648</v>
+        <v>136.8552218758649</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648143</v>
+        <v>364.1690246648146</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344808</v>
+        <v>710.5788654344813</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.208595376939</v>
+        <v>1086.20859537694</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336947</v>
+        <v>1458.341306336948</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818664</v>
+        <v>1786.049800818665</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010722</v>
+        <v>2042.940349010723</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742807</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742807</v>
+        <v>2056.743466925584</v>
       </c>
       <c r="S13" t="n">
-        <v>1949.247121276103</v>
+        <v>1868.62761945888</v>
       </c>
       <c r="T13" t="n">
-        <v>1728.355788710544</v>
+        <v>1647.73628689332</v>
       </c>
       <c r="U13" t="n">
-        <v>1439.264095659995</v>
+        <v>1358.644593842772</v>
       </c>
       <c r="V13" t="n">
-        <v>1184.579607454108</v>
+        <v>1103.960105636885</v>
       </c>
       <c r="W13" t="n">
-        <v>895.162437417147</v>
+        <v>814.542935599924</v>
       </c>
       <c r="X13" t="n">
-        <v>765.2961609820866</v>
+        <v>586.5533847019067</v>
       </c>
       <c r="Y13" t="n">
-        <v>544.5035818385564</v>
+        <v>556.1927176564066</v>
       </c>
     </row>
     <row r="14">
@@ -5273,19 +5273,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5315,10 +5315,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327638</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048569</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>444.7013164925211</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E16" t="n">
-        <v>296.788222910128</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="F16" t="n">
-        <v>149.8982754122177</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5434,16 +5434,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.4026036630036</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,16 +5525,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>950.7540666811329</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>781.8178837532263</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408905</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429801</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,25 +5674,25 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
@@ -5701,22 +5701,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1460.963815861624</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1171.546645824663</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1171.546645824663</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>950.7540666811329</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5753,7 +5753,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5765,13 +5765,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2497.745796000625</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>559.0424953278208</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C22" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="D22" t="n">
-        <v>408.9258559154851</v>
+        <v>194.8007783998292</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998292</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5908,31 +5908,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487567</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1733.574748442456</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1478.890260236569</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1189.473090199608</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>961.4835393015907</v>
+        <v>916.2946447138416</v>
       </c>
       <c r="Y22" t="n">
-        <v>740.6909601580605</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
     <row r="23">
@@ -5984,10 +5984,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075822</v>
@@ -6069,25 +6069,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1337.934786622704</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1965.532750177311</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2517.442480416598</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2517.442480416598</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2517.442480416598</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>945.4026036630041</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,49 +6148,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797754</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.4026036630041</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="26">
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6312,19 +6312,19 @@
         <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N27" t="n">
-        <v>1965.532750177311</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2517.442480416598</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2517.442480416598</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2517.442480416598</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>615.644930552589</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>615.644930552589</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="D28" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="E28" t="n">
-        <v>317.6151975578602</v>
+        <v>197.0043242297716</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6412,7 +6412,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
         <v>1688.385853854707</v>
@@ -6421,13 +6421,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1246.075525424376</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1018.085974526359</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>797.2933953828287</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6443,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="32">
@@ -6680,10 +6680,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6777,28 +6777,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>590.9096564684977</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.28814409505</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536378</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C34" t="n">
-        <v>705.932442825731</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133952</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310021</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583877</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6926,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6935,19 +6935,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7111,13 +7111,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487567</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7163,10 +7163,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M39" t="n">
-        <v>1337.934786622704</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N39" t="n">
-        <v>1965.532750177311</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O39" t="n">
-        <v>2517.442480416598</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
-        <v>2517.442480416598</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400708</v>
+        <v>580.8993044876694</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121639</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121639</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121639</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121639</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.052681478295</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038336</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138406</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703105</v>
+        <v>762.5477693179091</v>
       </c>
     </row>
     <row r="41">
@@ -7391,37 +7391,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,46 +7543,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>554.5813165460164</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C43" t="n">
-        <v>385.6451336181095</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D43" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2420.645095638608</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2237.790261293512</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2018.188796316453</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1729.113569660651</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1474.429081454764</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1185.011911417804</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>957.0223605197864</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y43" t="n">
-        <v>736.2297813762561</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="44">
@@ -7640,7 +7640,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192616</v>
@@ -7655,10 +7655,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,28 +7667,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188007</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7810,7 +7810,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490404</v>
+        <v>695.5020655703103</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8137,16 +8137,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>89.52419948887486</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457083</v>
+        <v>171.4142040457082</v>
       </c>
       <c r="N4" t="n">
-        <v>75.41988959484648</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>15.76852197496453</v>
+        <v>15.76852197496436</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,16 +8295,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>168.0623398690031</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>158.2640379276995</v>
+        <v>61.8611407841243</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>40.00791436438833</v>
+        <v>40.00791436438824</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878346</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>211.0329012241558</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>49.87305750948099</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.1466220418456</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615213</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.959002459687</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>110.8091727963087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.8230033569236</v>
@@ -23434,7 +23434,7 @@
         <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927376</v>
+        <v>90.25352389927373</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905241</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>97.14204171832714</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>188.5275929770497</v>
       </c>
     </row>
     <row r="14">
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>62.35543909864946</v>
       </c>
       <c r="G16" t="n">
-        <v>110.0033420516656</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>46.45968844823105</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>26.98982571067638</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,19 +24127,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>45.4467738245925</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>44.73700564187237</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>151.7319110345169</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>45.44677382459219</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294951</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>100.7734165143918</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>65.54986409393099</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>72.11969353038631</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25081,13 +25081,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>138.4949402405075</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>144.5956654067398</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194242</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823144</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,7 +25801,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>40.32043864788608</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>65.54986409393139</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194198</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>965784.7847869863</v>
+        <v>965784.7847869865</v>
       </c>
     </row>
     <row r="6">
@@ -26314,46 +26314,46 @@
         <v>369468.7964389276</v>
       </c>
       <c r="C2" t="n">
-        <v>369468.7964389276</v>
+        <v>369468.7964389277</v>
       </c>
       <c r="D2" t="n">
-        <v>369468.7964389273</v>
+        <v>369468.7964389272</v>
       </c>
       <c r="E2" t="n">
-        <v>329665.1599234784</v>
+        <v>329665.1599234785</v>
       </c>
       <c r="F2" t="n">
-        <v>363215.9698605027</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="G2" t="n">
         <v>363215.9698605026</v>
       </c>
       <c r="H2" t="n">
-        <v>363215.9698605026</v>
+        <v>363215.9698605029</v>
       </c>
       <c r="I2" t="n">
         <v>363215.9698605029</v>
       </c>
       <c r="J2" t="n">
-        <v>363215.9698605029</v>
+        <v>363215.9698605027</v>
       </c>
       <c r="K2" t="n">
         <v>363215.9698605028</v>
       </c>
       <c r="L2" t="n">
+        <v>363215.9698605026</v>
+      </c>
+      <c r="M2" t="n">
+        <v>363215.9698605026</v>
+      </c>
+      <c r="N2" t="n">
         <v>363215.9698605028</v>
       </c>
-      <c r="M2" t="n">
-        <v>363215.9698605028</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>363215.9698605026</v>
+      </c>
+      <c r="P2" t="n">
         <v>363215.9698605029</v>
-      </c>
-      <c r="O2" t="n">
-        <v>363215.9698605028</v>
-      </c>
-      <c r="P2" t="n">
-        <v>363215.9698605028</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208449</v>
       </c>
       <c r="C3" t="n">
-        <v>312214.8578912896</v>
+        <v>312214.8578912907</v>
       </c>
       <c r="D3" t="n">
-        <v>175413.4991972654</v>
+        <v>175413.4991972645</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.157354577</v>
+        <v>313577.1573545779</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704292</v>
+        <v>189308.2687704284</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854453</v>
       </c>
       <c r="K3" t="n">
-        <v>72591.00846030177</v>
+        <v>72591.00846030198</v>
       </c>
       <c r="L3" t="n">
-        <v>43280.54279925503</v>
+        <v>43280.54279925489</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273075</v>
+        <v>81897.40371273094</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202369</v>
+        <v>49839.5741320235</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278169.1766632064</v>
+        <v>278169.1766632065</v>
       </c>
       <c r="C4" t="n">
-        <v>195152.1081057576</v>
+        <v>195152.1081057574</v>
       </c>
       <c r="D4" t="n">
-        <v>146359.3674130576</v>
+        <v>146359.3674130577</v>
       </c>
       <c r="E4" t="n">
         <v>14111.33351720851</v>
@@ -26436,28 +26436,28 @@
         <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
+        <v>14216.75207685507</v>
+      </c>
+      <c r="J4" t="n">
+        <v>14216.75207685507</v>
+      </c>
+      <c r="K4" t="n">
         <v>14216.75207685505</v>
       </c>
-      <c r="J4" t="n">
-        <v>14216.75207685506</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>14216.75207685507</v>
       </c>
-      <c r="L4" t="n">
-        <v>14216.75207685506</v>
-      </c>
       <c r="M4" t="n">
-        <v>14216.75207685506</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="O4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="P4" t="n">
-        <v>14216.75207685507</v>
+        <v>14216.75207685511</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161354</v>
       </c>
       <c r="C5" t="n">
-        <v>79427.52208638305</v>
+        <v>79427.52208638311</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738564</v>
+        <v>85137.48506738571</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-557043.0831567378</v>
+        <v>-557043.0831567375</v>
       </c>
       <c r="C6" t="n">
-        <v>-217325.6916445026</v>
+        <v>-217325.6916445036</v>
       </c>
       <c r="D6" t="n">
-        <v>-45241.84261124046</v>
+        <v>-45241.84261123958</v>
       </c>
       <c r="E6" t="n">
-        <v>-83160.81601569275</v>
+        <v>-83381.94732966836</v>
       </c>
       <c r="F6" t="n">
-        <v>58568.41918931137</v>
+        <v>58533.68126387638</v>
       </c>
       <c r="G6" t="n">
-        <v>247876.6879597403</v>
+        <v>247841.9500343047</v>
       </c>
       <c r="H6" t="n">
-        <v>247876.6879597406</v>
+        <v>247841.950034305</v>
       </c>
       <c r="I6" t="n">
-        <v>247876.6879597407</v>
+        <v>247841.950034305</v>
       </c>
       <c r="J6" t="n">
-        <v>198811.7432311961</v>
+        <v>198777.0053057603</v>
       </c>
       <c r="K6" t="n">
-        <v>175285.6794994388</v>
+        <v>175250.941574003</v>
       </c>
       <c r="L6" t="n">
-        <v>204596.1451604856</v>
+        <v>204561.4072350498</v>
       </c>
       <c r="M6" t="n">
-        <v>165979.2842470098</v>
+        <v>165944.5463215738</v>
       </c>
       <c r="N6" t="n">
-        <v>198037.113827717</v>
+        <v>198002.3759022814</v>
       </c>
       <c r="O6" t="n">
-        <v>247876.6879597406</v>
+        <v>247841.9500343048</v>
       </c>
       <c r="P6" t="n">
-        <v>247876.6879597406</v>
+        <v>247841.950034305</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>791.2679074282997</v>
+        <v>791.2679074283004</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.24123721495</v>
+        <v>1202.241237214951</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C4" t="n">
-        <v>469.5770017178638</v>
+        <v>469.5770017178644</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490088</v>
+        <v>969.2208239490096</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>242.7979665153952</v>
+        <v>242.7979665153962</v>
       </c>
       <c r="D3" t="n">
-        <v>142.7969846892396</v>
+        <v>142.7969846892387</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974108</v>
+        <v>268.1763450974117</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267236</v>
+        <v>165.7342631267229</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C4" t="n">
-        <v>282.051414551544</v>
+        <v>282.0514145515448</v>
       </c>
       <c r="D4" t="n">
-        <v>171.0078303821749</v>
+        <v>171.0078303821743</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489701</v>
+        <v>328.6359918489709</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506395</v>
+        <v>203.4874641506387</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>282.051414551544</v>
+        <v>282.0514145515448</v>
       </c>
       <c r="L4" t="n">
-        <v>171.0078303821749</v>
+        <v>171.0078303821743</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489701</v>
+        <v>328.6359918489709</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506395</v>
+        <v>203.4874641506387</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>282.051414551544</v>
+        <v>282.0514145515448</v>
       </c>
       <c r="L4" t="n">
-        <v>171.0078303821749</v>
+        <v>171.0078303821743</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489701</v>
+        <v>328.6359918489709</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506395</v>
+        <v>203.4874641506387</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059419</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>241.703508565617</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637382</v>
+        <v>225.5722460637384</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368134</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871047</v>
+        <v>63.64367339871069</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121494</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>239.3067463653523</v>
       </c>
     </row>
     <row r="3">
@@ -27461,7 +27461,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27470,7 +27470,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
@@ -27509,22 +27509,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681384</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310563</v>
       </c>
       <c r="W3" t="n">
-        <v>220.5404088461981</v>
+        <v>64.16939599459997</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>78.44485369848914</v>
       </c>
     </row>
     <row r="4">
@@ -27540,10 +27540,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,13 +27552,13 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>6.040237682480708</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553089</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845843</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>36.19408632378045</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>121.092544317356</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>64.61205615750836</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>31.05906618577515</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>323.5723374724927</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>306.8976264094352</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>87.84129258094046</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>136.5335673127885</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.1711248816494</v>
       </c>
       <c r="U5" t="n">
         <v>251.0911747868545</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>29.8066368936</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>67.86025304616739</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>143.661633522339</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.6415446830818</v>
       </c>
       <c r="H6" t="n">
-        <v>95.79797317841046</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>30.79801895224377</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,7 +27746,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.3045852332498</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>78.0811642344588</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,10 +27789,10 @@
         <v>166.5641028040799</v>
       </c>
       <c r="H7" t="n">
-        <v>149.5409427785071</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>112.5404054555727</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>113.1358328502782</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>199.1500311756599</v>
       </c>
       <c r="T7" t="n">
-        <v>221.8489350595717</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.241199726252</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>105.3924523412757</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>149.3404140109766</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,16 +27859,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>345.9779157201209</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>77.00481222893612</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>137.5278003873776</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28059,13 +28059,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28500,7 +28500,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -29223,7 +29223,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29466,7 +29466,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30697,7 +30697,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -30757,7 +30757,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31121,46 +31121,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.180976512274569</v>
+        <v>3.180976512274572</v>
       </c>
       <c r="H5" t="n">
-        <v>32.57717570633194</v>
+        <v>32.57717570633197</v>
       </c>
       <c r="I5" t="n">
-        <v>122.6345969894655</v>
+        <v>122.6345969894656</v>
       </c>
       <c r="J5" t="n">
-        <v>269.981405258664</v>
+        <v>269.9814052586642</v>
       </c>
       <c r="K5" t="n">
-        <v>404.6321410232466</v>
+        <v>404.6321410232469</v>
       </c>
       <c r="L5" t="n">
-        <v>501.9819509607696</v>
+        <v>501.98195096077</v>
       </c>
       <c r="M5" t="n">
-        <v>558.5516420109324</v>
+        <v>558.5516420109328</v>
       </c>
       <c r="N5" t="n">
-        <v>567.5895915264325</v>
+        <v>567.5895915264331</v>
       </c>
       <c r="O5" t="n">
-        <v>535.9587563325023</v>
+        <v>535.9587563325027</v>
       </c>
       <c r="P5" t="n">
-        <v>457.4283986857238</v>
+        <v>457.4283986857242</v>
       </c>
       <c r="Q5" t="n">
-        <v>343.5096773398906</v>
+        <v>343.5096773398909</v>
       </c>
       <c r="R5" t="n">
-        <v>199.8170158391676</v>
+        <v>199.8170158391678</v>
       </c>
       <c r="S5" t="n">
-        <v>72.48650227345682</v>
+        <v>72.48650227345688</v>
       </c>
       <c r="T5" t="n">
-        <v>13.92472468248194</v>
+        <v>13.92472468248195</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2544781209819655</v>
+        <v>0.2544781209819657</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.701972480128796</v>
+        <v>1.701972480128797</v>
       </c>
       <c r="H6" t="n">
-        <v>16.437471058086</v>
+        <v>16.43747105808602</v>
       </c>
       <c r="I6" t="n">
-        <v>58.59861389917126</v>
+        <v>58.59861389917131</v>
       </c>
       <c r="J6" t="n">
-        <v>160.7990754142737</v>
+        <v>160.7990754142738</v>
       </c>
       <c r="K6" t="n">
-        <v>274.8312315829029</v>
+        <v>274.8312315829032</v>
       </c>
       <c r="L6" t="n">
-        <v>369.5445071437546</v>
+        <v>369.5445071437549</v>
       </c>
       <c r="M6" t="n">
-        <v>431.2410095484233</v>
+        <v>431.2410095484237</v>
       </c>
       <c r="N6" t="n">
-        <v>442.6546758734976</v>
+        <v>442.654675873498</v>
       </c>
       <c r="O6" t="n">
-        <v>404.9425488138016</v>
+        <v>404.942548813802</v>
       </c>
       <c r="P6" t="n">
-        <v>325.0020957888049</v>
+        <v>325.0020957888051</v>
       </c>
       <c r="Q6" t="n">
-        <v>217.2552941301249</v>
+        <v>217.2552941301251</v>
       </c>
       <c r="R6" t="n">
-        <v>105.6715895995756</v>
+        <v>105.6715895995757</v>
       </c>
       <c r="S6" t="n">
-        <v>31.61339233923441</v>
+        <v>31.61339233923443</v>
       </c>
       <c r="T6" t="n">
-        <v>6.860143461571766</v>
+        <v>6.860143461571772</v>
       </c>
       <c r="U6" t="n">
-        <v>0.111971873692684</v>
+        <v>0.1119718736926841</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.426876554378901</v>
+        <v>1.426876554378902</v>
       </c>
       <c r="H7" t="n">
-        <v>12.68622972893242</v>
+        <v>12.68622972893243</v>
       </c>
       <c r="I7" t="n">
-        <v>42.91006947168551</v>
+        <v>42.91006947168555</v>
       </c>
       <c r="J7" t="n">
-        <v>100.8801723945883</v>
+        <v>100.8801723945884</v>
       </c>
       <c r="K7" t="n">
-        <v>165.7771124087486</v>
+        <v>165.7771124087488</v>
       </c>
       <c r="L7" t="n">
-        <v>212.1376288210232</v>
+        <v>212.1376288210234</v>
       </c>
       <c r="M7" t="n">
-        <v>223.6693857014126</v>
+        <v>223.6693857014128</v>
       </c>
       <c r="N7" t="n">
-        <v>218.3510276350914</v>
+        <v>218.3510276350916</v>
       </c>
       <c r="O7" t="n">
-        <v>201.6825151589378</v>
+        <v>201.682515158938</v>
       </c>
       <c r="P7" t="n">
-        <v>172.5742334496081</v>
+        <v>172.5742334496082</v>
       </c>
       <c r="Q7" t="n">
-        <v>119.4814540216733</v>
+        <v>119.4814540216734</v>
       </c>
       <c r="R7" t="n">
-        <v>64.15755852689129</v>
+        <v>64.15755852689135</v>
       </c>
       <c r="S7" t="n">
-        <v>24.86656686131229</v>
+        <v>24.86656686131231</v>
       </c>
       <c r="T7" t="n">
-        <v>6.096654368709848</v>
+        <v>6.096654368709854</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07782963023884923</v>
+        <v>0.0778296302388493</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869143</v>
+        <v>4.833130601869145</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639237</v>
+        <v>49.4972987763924</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285603</v>
+        <v>186.3292675285604</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203915</v>
+        <v>410.2059184203918</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975125</v>
+        <v>614.7923367975128</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544654</v>
+        <v>762.7042574544658</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954558</v>
+        <v>848.6554437954562</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180165</v>
+        <v>862.387576118017</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956802</v>
+        <v>814.3281336956807</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620356</v>
+        <v>695.010221962036</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825968</v>
+        <v>521.923732282597</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696628</v>
+        <v>303.599140169663</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900932</v>
+        <v>110.1349635900933</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968218</v>
+        <v>21.1570292096822</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495314</v>
+        <v>0.3866504481495315</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858572</v>
+        <v>2.585952849858574</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837095</v>
+        <v>24.97486041837097</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469207</v>
+        <v>89.03390294469213</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>244.3158348193138</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598379</v>
+        <v>417.5746757598382</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747747</v>
+        <v>561.480683474775</v>
       </c>
       <c r="M12" t="n">
-        <v>382.5526639806315</v>
+        <v>250.198045131429</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340503</v>
+        <v>672.5632370340506</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924472</v>
+        <v>615.2639659924475</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383444</v>
+        <v>493.8035753383447</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047539</v>
+        <v>330.0946129047541</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605175</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627652</v>
+        <v>48.03293999627655</v>
       </c>
       <c r="T12" t="n">
         <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643798</v>
+        <v>0.1701284769643799</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535156</v>
+        <v>2.167976001535157</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092167</v>
+        <v>19.27527754092168</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798453</v>
+        <v>65.19695102798455</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085355</v>
+        <v>153.2759033085356</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329026</v>
+        <v>251.8793936329027</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100541</v>
+        <v>322.3189048100542</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770062</v>
+        <v>339.8400926770065</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531027</v>
+        <v>331.759454853103</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806238</v>
+        <v>306.4335533806239</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493063</v>
+        <v>262.2068429493065</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194575</v>
+        <v>181.5384268194576</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811707</v>
+        <v>97.48008457811713</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493538</v>
+        <v>37.7819090449354</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377481</v>
+        <v>9.263170188377487</v>
       </c>
       <c r="U13" t="n">
         <v>0.1182532364473723</v>
@@ -32072,10 +32072,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32087,19 +32087,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>189.0011860883002</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>369.1789913099997</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,10 +32546,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>158.8462560123214</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,28 +32789,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>181.6580975439405</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>704.1404939038099</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>181.6580975439405</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,7 +33497,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>524.5136961554247</v>
+        <v>528.6300513467554</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,16 +33731,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>337.5641188593844</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>388.514013929771</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>440.316328560036</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33992,10 +33992,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>181.6580975439405</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,31 +34208,31 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>597.1709559744729</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>602.8420149078241</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>338.9915131655318</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,19 +34857,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>75.41988959484627</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880152</v>
+        <v>174.6339172880151</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="N4" t="n">
-        <v>99.08507489005474</v>
+        <v>23.66518529520815</v>
       </c>
       <c r="O4" t="n">
-        <v>164.382023673283</v>
+        <v>164.3820236732829</v>
       </c>
       <c r="P4" t="n">
         <v>116.8989542469472</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>88.9355007319777</v>
+        <v>88.93550073197792</v>
       </c>
       <c r="K5" t="n">
-        <v>184.542289978266</v>
+        <v>184.5422899782664</v>
       </c>
       <c r="L5" t="n">
-        <v>266.2155359907823</v>
+        <v>266.2155359907827</v>
       </c>
       <c r="M5" t="n">
-        <v>328.2054087836597</v>
+        <v>328.2054087836601</v>
       </c>
       <c r="N5" t="n">
-        <v>338.1765279298416</v>
+        <v>338.1765279298422</v>
       </c>
       <c r="O5" t="n">
-        <v>305.8605449108155</v>
+        <v>305.860544910816</v>
       </c>
       <c r="P5" t="n">
-        <v>226.1954029304542</v>
+        <v>226.1954029304546</v>
       </c>
       <c r="Q5" t="n">
-        <v>121.2039874654411</v>
+        <v>121.2039874654414</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>33.96144874760697</v>
+        <v>33.96144874760711</v>
       </c>
       <c r="K6" t="n">
-        <v>136.989792608544</v>
+        <v>401.4550296211228</v>
       </c>
       <c r="L6" t="n">
-        <v>230.9901273638804</v>
+        <v>230.9901273638807</v>
       </c>
       <c r="M6" t="n">
-        <v>457.1693154954081</v>
+        <v>289.1069756264054</v>
       </c>
       <c r="N6" t="n">
-        <v>469.5770017178638</v>
+        <v>373.1741045742891</v>
       </c>
       <c r="O6" t="n">
-        <v>262.3463043693572</v>
+        <v>262.3463043693575</v>
       </c>
       <c r="P6" t="n">
-        <v>191.0276883744746</v>
+        <v>191.0276883744749</v>
       </c>
       <c r="Q6" t="n">
-        <v>77.27352004410338</v>
+        <v>77.27352004410355</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>7.520992277915525</v>
+        <v>7.52099227791561</v>
       </c>
       <c r="K7" t="n">
-        <v>143.5076205828658</v>
+        <v>143.5076205828659</v>
       </c>
       <c r="L7" t="n">
-        <v>239.7276540813393</v>
+        <v>239.7276540813395</v>
       </c>
       <c r="M7" t="n">
-        <v>263.2532626632532</v>
+        <v>263.2532626632534</v>
       </c>
       <c r="N7" t="n">
-        <v>262.48320001432</v>
+        <v>262.4832000143202</v>
       </c>
       <c r="O7" t="n">
-        <v>226.2676430729775</v>
+        <v>226.2676430729777</v>
       </c>
       <c r="P7" t="n">
-        <v>169.8527927145016</v>
+        <v>169.8527927145017</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.31941076997887</v>
+        <v>33.31941076997897</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313194</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>546.4575832202787</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937052</v>
+        <v>229.1600138937055</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525319</v>
+        <v>394.7024857525323</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844781</v>
+        <v>526.9378424844786</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681831</v>
+        <v>618.3092105681835</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214256</v>
+        <v>632.974512521426</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739935</v>
+        <v>584.2299222739939</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067661</v>
+        <v>463.7772262067664</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081473</v>
+        <v>299.6180424081475</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553068</v>
+        <v>88.01360235553085</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>117.4782081526471</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854789</v>
+        <v>279.7332367854792</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949005</v>
+        <v>422.9263036949008</v>
       </c>
       <c r="M12" t="n">
-        <v>240.4186300586132</v>
+        <v>108.0640112094106</v>
       </c>
       <c r="N12" t="n">
-        <v>541.221524950717</v>
+        <v>541.2215249507174</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480028</v>
+        <v>472.6677215480031</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240141</v>
+        <v>359.8291679240144</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187324</v>
+        <v>190.1128388187326</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655351</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186273</v>
+        <v>59.91672319186281</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070197</v>
+        <v>229.6099018070199</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703702</v>
+        <v>349.9089300703704</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388468</v>
+        <v>379.423969638847</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323313</v>
+        <v>375.8916272323315</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946635</v>
+        <v>331.0186812946636</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141998</v>
+        <v>259.4854022142</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776309</v>
+        <v>95.3763835677632</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>57.65947400496688</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>18.86448192629984</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>35.9785935799765</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36519,7 +36519,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191324</v>
       </c>
       <c r="M25" t="n">
         <v>426.2724270010451</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>35.9785935799765</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36762,7 +36762,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899078</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060454</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>393.1719840720914</v>
+        <v>397.2883392634221</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>199.0097390795102</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>245.9177694853266</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>302.474889585677</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37640,10 +37640,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>455.0369220524547</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>199.0097390795103</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
